--- a/Hoang-HW-FlowChart.xlsx
+++ b/Hoang-HW-FlowChart.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\FPT APTECH\HW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\mikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5912B59-02CF-4D38-8EA0-ABB20DBBAB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F965105-50CF-4237-9FF6-D97DB060C1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{EE47EEA8-75E7-45D2-81F3-5C20882EAAB0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EE47EEA8-75E7-45D2-81F3-5C20882EAAB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
     <sheet name="Buoi 1" sheetId="2" r:id="rId2"/>
     <sheet name="Buoi 2" sheetId="3" r:id="rId3"/>
     <sheet name="Buoi 3" sheetId="5" r:id="rId4"/>
+    <sheet name="Buoi 4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
   <si>
     <t>Yes</t>
   </si>
@@ -204,6 +205,27 @@
   <si>
     <t>Bài 3: Nhập 2 số là giá trị của tháng và ngày. Kiểm tra xem đó là ngày thứ bao nhiêu trong năm, và đó là đang thứ mấy. Với giả sử rằng: ngày 1/1 là ngày thứ 2 và năm không nhuận</t>
   </si>
+  <si>
+    <t>Nhập n sau đó tính S = 1 + 1/2 + 1/3 + … + 1/n</t>
+  </si>
+  <si>
+    <t>Yêu cầu người dùng nhập đúng 3 số là độ dài 3 cạnh tam giác, sau đó tính chu vi và diện tích</t>
+  </si>
+  <si>
+    <t>Tính tổng 100 số lẻ &gt; 0 đầu tiên</t>
+  </si>
+  <si>
+    <t>Task 4</t>
+  </si>
+  <si>
+    <t>Nhập vào 1 số n ( số tự nhiên). Tìm số đứng ở vị trí thứ n trong dãy số Fibonacci</t>
+  </si>
+  <si>
+    <t>Buoi 3'!A1</t>
+  </si>
+  <si>
+    <t>Buoi 4'!A1</t>
+  </si>
 </sst>
 </file>
 
@@ -213,7 +235,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +289,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -318,7 +368,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -351,6 +401,10 @@
     </xf>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -21709,6 +21763,4327 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2664CCE-16B5-4921-B0A8-D237E2946B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240280" y="411480"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Parallelogram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75903296-2B36-4D58-B05F-43C448021183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2072640" y="1021080"/>
+          <a:ext cx="1264920" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>input N,i,sum</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28DE90A8-1786-44FE-B776-67AEB4371396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2011680" y="4122420"/>
+          <a:ext cx="1165860" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sum =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sum + 1/i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>i++</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Diamond 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69B37DF6-D95A-455C-A5E0-87DF1B7D1115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912620" y="2788920"/>
+          <a:ext cx="1211580" cy="922020"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i&lt;=N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EF1115-2A19-4A85-83FF-6905DB95C398}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2613660" y="655320"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A4F2AA-D646-455B-9929-571E22C70B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2606040" y="1386840"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575310</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8A05F0-A3A1-4262-8F79-14E9052573DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2514600" y="3710940"/>
+          <a:ext cx="3810" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74423646-D93D-469E-B0D7-74D08FBF0FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1234440" y="4457700"/>
+          <a:ext cx="777240" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E529F7B5-CAEE-45D5-8CF1-ECECF61A848C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2590800"/>
+          <a:ext cx="7620" cy="1882140"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2DCB1F-8117-4F36-A204-4446E9F1E686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="2590800"/>
+          <a:ext cx="1234440" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2AC87A-A0E2-4868-A39E-5CE9E502C15F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3116580" y="3246120"/>
+          <a:ext cx="1234440" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Parallelogram 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C4518D8-8913-41A5-AB09-9B7BE3BD2294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351020" y="3002280"/>
+          <a:ext cx="1386840" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sum</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D8B259-3938-40A0-B1E9-046701EF405E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042160" y="1691640"/>
+          <a:ext cx="1165860" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sum=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i=1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DBCC32-AE19-436B-96C4-E63E39143EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="2423160"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1932707B-99A2-443A-8DB4-DE85407A8238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4602480" y="4259580"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>stop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D9A6B4-EE84-431F-BD72-36431AFAF06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4983480" y="3589020"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Oval 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9502BCDC-9CCA-4D08-935F-C67EFF396A1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2849880" y="5494020"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Parallelogram 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B2A55D-E3E8-4FB7-9050-9BC005F9EA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="6088380"/>
+          <a:ext cx="1714500" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>input a,b,c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D490459-7D9C-4737-BD60-B776780F07D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3223260" y="5737860"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E8D36C-156E-4CC8-A36A-0F111C4BE99F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3215640" y="6469380"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1D2C83-0D06-4452-B839-24D9053867AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3169920" y="7772400"/>
+          <a:ext cx="64770" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Diamond 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4685A71-D326-43FC-A2BA-FA01CEBF9344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="6804660"/>
+          <a:ext cx="2872740" cy="967740"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a+b&lt;=c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> || a+c &lt;=b || b+c&lt;=a</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7756058-8718-4221-8A4A-08F2955514C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4640580" y="7239000"/>
+          <a:ext cx="1775460" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D00F18E-8D80-4535-9F23-18DD5A821184}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1165860" y="8991600"/>
+          <a:ext cx="1158240" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06460F83-896E-44E9-AA79-D3B02586BD0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1120140" y="6675120"/>
+          <a:ext cx="38100" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Parallelogram 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E69E75AB-B705-440A-95CB-38E7DC0827ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918960" y="8366760"/>
+          <a:ext cx="1386840" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>display C,S</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Oval 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED767A7-BBF1-45A4-8D0A-E88100B39778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7193280" y="9624060"/>
+          <a:ext cx="792480" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>stop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A8B906-CEEA-4C73-BCA2-817D8D61F3DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="8938260"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Oval 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B398DB6-7673-4293-BB7B-D79CB22051F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459480" y="10751820"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Parallelogram 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E27AF8-CC3F-483F-967C-B4B863424E54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="11346180"/>
+          <a:ext cx="1714500" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>input a,b,c</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010FEEE1-C87A-404A-8CB9-801E19068FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="10995660"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AE4C65-4E76-4045-9F5C-E869A215BC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="11727180"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBF85F2-9EC6-4853-B61F-4F46EFF49A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="12031980"/>
+          <a:ext cx="1165860" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sum=0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>count</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> =1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3984DA-E1C1-405C-B001-CB42DFF9D085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="13708380"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Diamond 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2F1067-CAFD-4150-B2B9-28AD84C31DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="14058900"/>
+          <a:ext cx="1554480" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i%2&gt;0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2750CC-A2DF-48C2-BA76-E759E28EFAED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3779520" y="12694920"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F3A019-9D2D-4211-8F50-77E49F483CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4579620" y="13350240"/>
+          <a:ext cx="1775460" cy="45720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D8DA74-F2EA-4FFB-B6ED-399F26BC74A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2567940" y="14378940"/>
+          <a:ext cx="7620" cy="655320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D86522-8E9B-4B6F-A84A-B421A80B855F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2567940" y="14378940"/>
+          <a:ext cx="403860" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C79C1E89-9998-43B6-A4F8-E434392AB32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2080260" y="15087600"/>
+          <a:ext cx="1165860" cy="678180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sum=sum+i</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>count++</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17685DE6-6051-4386-A5F5-87423AA60BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4556760" y="14394180"/>
+          <a:ext cx="403860" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802199A6-4D34-4CB1-A120-F77E962835A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4930140" y="14401800"/>
+          <a:ext cx="7620" cy="1729740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E091640-9DF4-40BF-9C7D-E9C3C69795CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2598420" y="16123920"/>
+          <a:ext cx="2339340" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30019C80-8019-40A8-8DA9-9E3967F047DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2552700" y="15796260"/>
+          <a:ext cx="22860" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FE6027-F333-4DA1-B595-2B8DCC5B83D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3726180" y="16131540"/>
+          <a:ext cx="7620" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D476872-63A6-4332-96A7-6D2503D2A273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="16543020"/>
+          <a:ext cx="571500" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i++</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Parallelogram 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1265318E-B773-4AD1-84B1-2B0B4EECDF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6370320" y="13098780"/>
+          <a:ext cx="1386840" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sum</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Oval 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83E45CC-FEE8-49E6-8B56-7CA448501A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6682740" y="14310360"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>stop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5151C34-B093-4C33-B306-886A9E0B4367}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7025640" y="13647420"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Parallelogram 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F203DDC5-A25F-4220-83E3-CCFDB032149B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2308860" y="8839200"/>
+          <a:ext cx="1714500" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>input a,b,c</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724BAACE-7CFB-4EB0-A241-3EFC1BBA9FD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1135380" y="6637020"/>
+          <a:ext cx="1950720" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85484EC5-DB8E-443E-8930-72E389F72B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6568440" y="6964680"/>
+          <a:ext cx="1973580" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>C = a+b+c</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>P=C/2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>S=S=sqrt(P*(P-a)*(P-b)*(P-c))</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F1C5D1-1A4D-4D80-94CB-FDED3E4FD16F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="7665720"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Diamond 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9563066F-C1E7-44D1-AD10-0B51825F0A61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3017520" y="12954000"/>
+          <a:ext cx="1554480" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>count &lt;=N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C34AF4-0BA9-4651-8E9B-6EB4066BE742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1584960" y="12847320"/>
+          <a:ext cx="53340" cy="3771900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32705F3D-A8B2-463A-8BC6-D900D14AFF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1569720" y="12847320"/>
+          <a:ext cx="2103120" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E4A3238-81EB-4CAD-8A52-C34D0B2E377B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1584960" y="16649700"/>
+          <a:ext cx="1836420" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Oval 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A2084F-E9F9-4E6B-823D-A26B35B77697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459480" y="17586960"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>start</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Parallelogram 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5415C19E-D48F-45CA-91B5-70C2DAD6F542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3398520" y="18181320"/>
+          <a:ext cx="853440" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> n</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACF6BF7-F77E-4BF8-8489-BF696016112F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832860" y="17830800"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C7E0BF-0858-4BC4-BEBC-9D1808BD22F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3825240" y="18562320"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501560DF-45C8-441F-B511-9FFA22996C63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3406140" y="18920460"/>
+          <a:ext cx="853440" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i=3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f=f1=f2=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AE5BA0-FE79-449A-BDA5-DA97008F36C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3787140" y="19423380"/>
+          <a:ext cx="7620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Diamond 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D67E6D4-5E27-4B3D-B38C-AC3CBEB0732A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="19735800"/>
+          <a:ext cx="1554480" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i&lt;=n</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA0EA50-C0E9-4468-9CAC-D1A1EA9C8429}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3771900" y="20459700"/>
+          <a:ext cx="7620" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2235CFB6-EC2E-46A8-9038-35F8CE28A5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3299460" y="21214080"/>
+          <a:ext cx="922020" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f=f1+f2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f1=f2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>f2=f</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>i++</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598170</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3137DAD-D90C-4E32-B898-2F1723F5B0FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3741420" y="22082760"/>
+          <a:ext cx="19050" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D8F0F1-E3B2-442B-9918-DA2F692141A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2689860" y="22258020"/>
+          <a:ext cx="1051560" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48D32D7-C29E-4954-9F69-1CDA4A05C4D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2697480" y="19591020"/>
+          <a:ext cx="15240" cy="2682240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39FAFB56-5EE1-4108-B727-A00C8D8B5BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2727960" y="19575780"/>
+          <a:ext cx="1028700" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FB7DD79-B8E9-4FE9-983A-AB16275F1C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4572000" y="20086320"/>
+          <a:ext cx="1821180" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Parallelogram 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EA88D5-02A7-4D4F-8C2A-701CBDD4ED57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6431280" y="19827240"/>
+          <a:ext cx="1386840" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="parallelogram">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>display</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> F(%)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Oval 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9173110-8139-4179-BB43-D8A4547394BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6690360" y="20916900"/>
+          <a:ext cx="792480" cy="373380"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>stop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0B8402-4FCD-4398-9377-CD2167719965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7056120" y="20253960"/>
+          <a:ext cx="0" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -22013,8 +26388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7075AC-69D1-4ABD-8C9D-95C3E8CA93B3}">
   <dimension ref="B1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22075,22 +26450,30 @@
       <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7">
+        <v>44494</v>
+      </c>
       <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="7">
+        <v>44496</v>
+      </c>
       <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
@@ -22252,6 +26635,8 @@
   <hyperlinks>
     <hyperlink ref="E2" location="'Buoi 1'!A1" display="'Buoi 1'!A1" xr:uid="{C55CB180-04CF-4578-AAA1-90A9C6081E87}"/>
     <hyperlink ref="E3" location="'Buoi 2'!A1" display="'Buoi 2'!A1" xr:uid="{00577B29-48AE-4E71-ADB4-0714BD702690}"/>
+    <hyperlink ref="E4" location="'Buoi 3'!A1" display="'Buoi 3'!A1" xr:uid="{075D4D67-787E-487E-AC34-2CFDABAE305C}"/>
+    <hyperlink ref="E5" location="'Buoi 4'!A1" display="'Buoi 4'!A1" xr:uid="{F443DDC8-1E22-47DE-B9CA-1CC948C59F65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22261,7 +26646,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12061C14-F3D0-4A32-88B1-7037D55DB18B}">
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -22281,7 +26668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>0</v>
       </c>
@@ -22289,11 +26676,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="P21" t="s">
         <v>0</v>
       </c>
       <c r="T21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
         <v>1</v>
       </c>
     </row>
@@ -22637,7 +27038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00216F2E-5903-49A4-8E91-DF378BA9011B}">
   <dimension ref="A1:AB184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB188" sqref="AB188"/>
     </sheetView>
   </sheetViews>
@@ -22872,4 +27273,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE10C6BC-4C41-49FB-B4A5-BCF1749E3E92}">
+  <dimension ref="A1:I118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I77" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E81" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F118" s="19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>